--- a/03_plots_and_tables/CDI_hospital.xlsx
+++ b/03_plots_and_tables/CDI_hospital.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chao1</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.841192386635823e-20</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.523577159907469e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>chao1</t>
+          <t>shannon_entropy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -420,20 +420,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CDIpre</t>
+          <t>CDIpost</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.455506606728624e-15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.183259910092936e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>faith_pd</t>
+          <t>simpson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.447369153857291e-15</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.447369153857291e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>faith_pd</t>
+          <t>pielou_evenness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -466,20 +466,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CDIpre</t>
+          <t>CDIpost</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.339766116922186e-14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.004824587691639e-13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>faith_pd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7.258921460416342e-13</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.355352876249805e-12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CDIpre</t>
+          <t>CDIpost</t>
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.176394209367384e-12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5.881971046836918e-12</v>
       </c>
     </row>
     <row r="8">
@@ -535,20 +535,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CDIpost</t>
+          <t>CDIpre</t>
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5.28784196231898e-12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.266217983850991e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>shannon_entropy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.040396490028212e-11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3.901486837605796e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>chao1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -581,20 +581,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CDIpost</t>
+          <t>CDIpre</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.185108875522727e-11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.061702958507576e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>faith_pd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6.772598349646446e-11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.847072277176303e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pielou_evenness</t>
+          <t>simpson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -627,20 +627,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CDIpost</t>
+          <t>CDIpre</t>
         </is>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6.772598349646446e-11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.847072277176303e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pielou_evenness</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -654,16 +654,16 @@
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9.173421496094203e-11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.293355374023551e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>shannon_entropy</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -673,20 +673,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CDIpost</t>
+          <t>CDIpre</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.668648437440649e-10</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6.158419471016882e-10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>shannon_entropy</t>
+          <t>chao1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -696,20 +696,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CDIpre</t>
+          <t>CDIpost</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9.586217901531472e-10</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.054189550328173e-09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>simpson</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.053237056655369e-09</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4.106474113310738e-09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>simpson</t>
+          <t>pielou_evenness</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.628145368156942e-09</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1.430277256529427e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8.329307213086381e-08</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.469877743485832e-07</v>
       </c>
     </row>
     <row r="19">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2.156402541982094e-07</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3.594004236636824e-07</v>
       </c>
     </row>
     <row r="20">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>1e-05</v>
+        <v>1.18519383494437e-05</v>
       </c>
       <c r="E20">
-        <v>2e-05</v>
+        <v>1.871358686754268e-05</v>
       </c>
     </row>
     <row r="21">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.00876</v>
+        <v>0.008758683592259026</v>
       </c>
       <c r="E21">
-        <v>0.01314</v>
+        <v>0.01313802538838854</v>
       </c>
     </row>
     <row r="22">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.00925</v>
+        <v>0.009249219736904441</v>
       </c>
       <c r="E22">
-        <v>0.01321</v>
+        <v>0.01321317105272063</v>
       </c>
     </row>
     <row r="23">
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.01016</v>
+        <v>0.01016212506554146</v>
       </c>
       <c r="E23">
-        <v>0.01385</v>
+        <v>0.0138574432711929</v>
       </c>
     </row>
     <row r="24">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.01271</v>
+        <v>0.012707365605702</v>
       </c>
       <c r="E24">
-        <v>0.01469</v>
+        <v>0.0146845973752837</v>
       </c>
     </row>
     <row r="25">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.01271</v>
+        <v>0.012707365605702</v>
       </c>
       <c r="E25">
-        <v>0.01469</v>
+        <v>0.0146845973752837</v>
       </c>
     </row>
     <row r="26">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.01271</v>
+        <v>0.012707365605702</v>
       </c>
       <c r="E26">
-        <v>0.01469</v>
+        <v>0.0146845973752837</v>
       </c>
     </row>
     <row r="27">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.01273</v>
+        <v>0.01272665105857921</v>
       </c>
       <c r="E27">
-        <v>0.01469</v>
+        <v>0.0146845973752837</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.09159</v>
+        <v>0.09158751944440341</v>
       </c>
       <c r="E28">
-        <v>0.10177</v>
+        <v>0.1017639104937816</v>
       </c>
     </row>
     <row r="29">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.09762</v>
+        <v>0.09762085152953259</v>
       </c>
       <c r="E29">
-        <v>0.10459</v>
+        <v>0.1045937694959278</v>
       </c>
     </row>
     <row r="30">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.14901</v>
+        <v>0.1490125661900617</v>
       </c>
       <c r="E30">
-        <v>0.15415</v>
+        <v>0.1541509305414431</v>
       </c>
     </row>
     <row r="31">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.31623</v>
+        <v>0.3162290463953124</v>
       </c>
       <c r="E31">
-        <v>0.31623</v>
+        <v>0.3162290463953124</v>
       </c>
     </row>
   </sheetData>
